--- a/Assignment08/Src/Top5TransactionsByLoyaltyNumberWithPieChart.xlsx
+++ b/Assignment08/Src/Top5TransactionsByLoyaltyNumberWithPieChart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3840" yWindow="945" windowWidth="21600" windowHeight="14475" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2304" yWindow="2304" windowWidth="21648" windowHeight="13224" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -45,12 +47,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -73,7 +79,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Top 5 Total Transactions by Loyalty Number</a:t>
+              <a:t>Top 5 Total Transactions by Store</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -85,6 +91,11 @@
         <ser>
           <idx val="0"/>
           <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!B1</f>
+            </strRef>
+          </tx>
           <spPr>
             <a:ln>
               <a:prstDash val="solid"/>
@@ -101,12 +112,12 @@
           </dPt>
           <cat>
             <numRef>
-              <f>'Sheet1'!$F$2:$F$6</f>
+              <f>'Sheet1'!$D$2:$D$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$1:$B$6</f>
+              <f>'Sheet1'!$B$2:$B$6</f>
             </numRef>
           </val>
         </ser>
@@ -453,84 +464,127 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="9.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="9.6640625" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">138       </t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>87495</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>39572</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Loyalty Number</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Total Transactions</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Date of Issue</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Formatted Loyalty</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">43.2      </t>
+          <t xml:space="preserve">138       </t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>87433</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>39523</v>
+        <v>87495</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>39572</v>
+      </c>
+      <c r="D2" s="3">
+        <f>A2&amp;" "&amp;TEXT(C2, "MM/DD/yyyy")</f>
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">42.5      </t>
+          <t xml:space="preserve">43.2      </t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>87324</v>
+        <v>87433</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>39522</v>
+        <v>39523</v>
+      </c>
+      <c r="D3" s="3">
+        <f>A3&amp;" "&amp;TEXT(C3, "MM/DD/yyyy")</f>
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">34        </t>
+          <t xml:space="preserve">42.5      </t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>87299</v>
+        <v>87324</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>39511</v>
+        <v>39522</v>
+      </c>
+      <c r="D4" s="3">
+        <f>A4&amp;" "&amp;TEXT(C4, "MM/DD/yyyy")</f>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve">34        </t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>87299</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>39511</v>
+      </c>
+      <c r="D5" s="3">
+        <f>A5&amp;" "&amp;TEXT(C5, "MM/DD/yyyy")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">24        </t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>87281</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C6" s="2" t="n">
         <v>39501</v>
+      </c>
+      <c r="D6" s="3">
+        <f>A6&amp;" "&amp;TEXT(C6, "MM/DD/yyyy")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>